--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 3.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 3.xlsx
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -592,7 +592,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -615,7 +615,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -638,7 +638,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -661,7 +661,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -685,7 +685,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -708,7 +708,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Students. </t>
+          <t xml:space="preserve">SS. </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -754,7 +754,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -777,7 +777,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -800,7 +800,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -823,7 +823,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -847,7 +847,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -871,7 +871,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -894,7 +894,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -917,7 +917,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -963,7 +963,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1032,7 +1032,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1055,7 +1055,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1078,7 +1078,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1101,7 +1101,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1193,7 +1193,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1240,7 +1240,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1287,7 +1287,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1333,7 +1333,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1379,7 +1379,7 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1402,7 +1402,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1425,7 +1425,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1448,7 +1448,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1471,7 +1471,7 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1494,7 +1494,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1517,7 +1517,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1540,7 +1540,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1563,7 +1563,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1586,7 +1586,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1609,7 +1609,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1636,7 +1636,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1661,7 +1661,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1685,7 +1685,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1708,7 +1708,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1731,7 +1731,7 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1754,7 +1754,7 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1777,7 +1777,7 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1800,7 +1800,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1823,7 +1823,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1871,7 +1871,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
